--- a/идеальная последовательность (1) — копия.xlsx
+++ b/идеальная последовательность (1) — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C75A19-1175-4421-867A-90994125AF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53016045-C8BF-4086-9B31-2367E11D8D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>ФИО</t>
   </si>
@@ -234,9 +234,6 @@
     <t>IT-отдел</t>
   </si>
   <si>
-    <t>Кореев Корней Корнеевич</t>
-  </si>
-  <si>
     <t>Корнеев К.К</t>
   </si>
   <si>
@@ -364,6 +361,12 @@
   </si>
   <si>
     <t>Блинов Андрей Вячеславович</t>
+  </si>
+  <si>
+    <t>ФИОВП</t>
+  </si>
+  <si>
+    <t>Корнеев Корней Корнеевич</t>
   </si>
 </sst>
 </file>
@@ -801,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH24"/>
+  <dimension ref="A1:BI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AV29" sqref="AV29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +868,7 @@
     <col min="60" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,178 +879,181 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="BB1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1058,178 +1064,181 @@
         <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>2025</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>79325563981</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="P2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="R2" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="V2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="X2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="4">
+      <c r="AK2" s="4">
         <v>123</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AO2" s="4">
         <v>123</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AU2" s="4">
         <v>123</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AX2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="BD2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BG2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="9" t="s">
+      <c r="BH2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BH2" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -1239,7 +1248,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -1249,7 +1258,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -1268,7 +1277,7 @@
       <c r="AN5" s="13"/>
       <c r="AO5" s="12"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -1284,7 +1293,7 @@
       <c r="AN6" s="13"/>
       <c r="AO6" s="13"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1300,7 +1309,7 @@
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -1316,7 +1325,7 @@
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -1332,7 +1341,7 @@
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1348,7 +1357,7 @@
       <c r="AN10" s="13"/>
       <c r="AO10" s="13"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1358,7 +1367,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -1368,7 +1377,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -1378,7 +1387,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -1388,7 +1397,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -1398,7 +1407,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -1490,7 +1499,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{CD931E55-D571-4686-B033-5C225F0D846B}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{CD931E55-D571-4686-B033-5C225F0D846B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/идеальная последовательность (1) — копия.xlsx
+++ b/идеальная последовательность (1) — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53016045-C8BF-4086-9B31-2367E11D8D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED26F5D-DFFC-4322-9CD0-4E7CC6834649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>ФИО</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>Корнеев Корней Корнеевич</t>
+  </si>
+  <si>
+    <t>темаВКР</t>
+  </si>
+  <si>
+    <t>Разработка мобильного приложения о погоде</t>
   </si>
 </sst>
 </file>
@@ -804,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI24"/>
+  <dimension ref="A1:BJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AV29" sqref="AV29"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,7 +821,7 @@
     <col min="1" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" style="4" customWidth="1"/>
     <col min="9" max="9" width="20" style="4" customWidth="1"/>
@@ -865,10 +871,13 @@
     <col min="57" max="57" width="25.6640625" style="4" customWidth="1"/>
     <col min="58" max="58" width="22" style="4" customWidth="1"/>
     <col min="59" max="59" width="21.6640625" style="4" customWidth="1"/>
-    <col min="60" max="16384" width="8.88671875" style="4"/>
+    <col min="60" max="60" width="23.88671875" style="4" customWidth="1"/>
+    <col min="61" max="61" width="26.44140625" style="4" customWidth="1"/>
+    <col min="62" max="62" width="26.77734375" style="4" customWidth="1"/>
+    <col min="63" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,8 +1061,11 @@
       <c r="BI1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="BJ1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1237,8 +1249,11 @@
       <c r="BI2" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="BJ2" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -1248,7 +1263,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -1258,7 +1273,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -1277,7 +1292,7 @@
       <c r="AN5" s="13"/>
       <c r="AO5" s="12"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -1293,7 +1308,7 @@
       <c r="AN6" s="13"/>
       <c r="AO6" s="13"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1309,7 +1324,7 @@
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -1325,7 +1340,7 @@
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -1341,7 +1356,7 @@
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1357,7 +1372,7 @@
       <c r="AN10" s="13"/>
       <c r="AO10" s="13"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1367,7 +1382,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -1377,7 +1392,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -1387,7 +1402,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -1397,7 +1412,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -1407,7 +1422,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
